--- a/PCB/roboticsRequirements.xlsx
+++ b/PCB/roboticsRequirements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Component:</t>
   </si>
@@ -101,16 +101,10 @@
     <t>Interfaces:</t>
   </si>
   <si>
-    <t>Package:</t>
-  </si>
-  <si>
-    <t>LQFP or BGA</t>
-  </si>
-  <si>
-    <t>BGA</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t>Device:</t>
+  </si>
+  <si>
+    <t>ATSAM4LS4BA-AU</t>
   </si>
 </sst>
 </file>
@@ -431,18 +425,18 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -565,17 +559,9 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>